--- a/Data/aearep-1031/candidatepackages.xlsx
+++ b/Data/aearep-1031/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,57 +22,36 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>coefplot</t>
   </si>
   <si>
     <t>tmpdir</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>reg2hdfe</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>lars</t>
+    <t>pre</t>
   </si>
   <si>
     <t>cv</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>spike</t>
   </si>
   <si>
@@ -91,24 +70,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1031</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1031/119685/Code-and-data-files</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1031/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>Appendix.do</t>
   </si>
   <si>
@@ -125,9 +92,6 @@
   </si>
   <si>
     <t>config_stata.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -171,7 +135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -179,13 +143,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -205,7 +169,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -217,7 +181,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -229,7 +193,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -241,7 +205,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -253,7 +217,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -265,7 +229,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>212</v>
+        <v>293</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -277,10 +241,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.12198346853256226</v>
       </c>
       <c r="D9"/>
     </row>
@@ -289,10 +253,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>279</v>
+        <v>712</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D10"/>
     </row>
@@ -301,10 +265,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>338</v>
+        <v>1428</v>
       </c>
       <c r="C11">
-        <v>0.11206896603107452</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D11"/>
     </row>
@@ -313,10 +277,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>745</v>
+        <v>1503</v>
       </c>
       <c r="C12">
-        <v>0.24701590836048126</v>
+        <v>0.49685949087142944</v>
       </c>
       <c r="D12"/>
     </row>
@@ -325,10 +289,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>985</v>
+        <v>2202</v>
       </c>
       <c r="C13">
-        <v>0.32659152150154114</v>
+        <v>0.72793388366699219</v>
       </c>
       <c r="D13"/>
     </row>
@@ -337,96 +301,12 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1124</v>
+        <v>2259</v>
       </c>
       <c r="C14">
-        <v>0.37267905473709106</v>
+        <v>0.74677687883377075</v>
       </c>
       <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1424</v>
-      </c>
-      <c r="C15">
-        <v>0.47214853763580322</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1553</v>
-      </c>
-      <c r="C16">
-        <v>0.51492041349411011</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1798</v>
-      </c>
-      <c r="C17">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1817</v>
-      </c>
-      <c r="C18">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1859</v>
-      </c>
-      <c r="C19">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1894</v>
-      </c>
-      <c r="C20">
-        <v>0.62798410654067993</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1963</v>
-      </c>
-      <c r="C21">
-        <v>0.65086209774017334</v>
-      </c>
-      <c r="D21"/>
     </row>
   </sheetData>
 </worksheet>
@@ -434,87 +314,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
